--- a/data/trans_dic/P13A_1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0185498724567402</v>
+        <v>0.01795623201710994</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05918605330030136</v>
+        <v>0.05872119674994603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04414875654138992</v>
+        <v>0.04386324391004956</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05176033255489019</v>
+        <v>0.05141910571723916</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09982611731198861</v>
+        <v>0.1025854425194232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0712596869146906</v>
+        <v>0.07095266429989151</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.009523391005118018</v>
+        <v>0.009523391005118016</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03985596190324892</v>
+        <v>0.0398559619032489</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.02582671289273145</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004904309202304162</v>
+        <v>0.004921942244778832</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03065980026486821</v>
+        <v>0.03022181690004049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02035565882317104</v>
+        <v>0.02077415922845179</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01749066423888377</v>
+        <v>0.01747091527289056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0504376715003443</v>
+        <v>0.04955530321696006</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03184921878524283</v>
+        <v>0.03255078156088193</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.00520687999553626</v>
+        <v>0.005206879995536261</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.03208186170548117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01864875226124169</v>
+        <v>0.0186487522612417</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002048499463902086</v>
+        <v>0.001742211260888882</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02300983894896259</v>
+        <v>0.02314657242668164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01390058056247627</v>
+        <v>0.01365458599659567</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01207598866191409</v>
+        <v>0.01152832382190972</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.045925537384728</v>
+        <v>0.04411501289831163</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02565818819192961</v>
+        <v>0.0255402139877226</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004568403761589141</v>
+        <v>0.004828849592127011</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02242761963166221</v>
+        <v>0.02304676666208426</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01540355471252374</v>
+        <v>0.01506472394511779</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01782516310338031</v>
+        <v>0.01819974270015023</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04492093519974052</v>
+        <v>0.04598875561314798</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02797917634597137</v>
+        <v>0.02754519875886826</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.01118245202434685</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04185876231882606</v>
+        <v>0.04185876231882608</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.02696880540881563</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008091466934902168</v>
+        <v>0.008247478554268014</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03613921135980577</v>
+        <v>0.03569434227613789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02372803034404637</v>
+        <v>0.02333560819383118</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01548297051849344</v>
+        <v>0.01516180417997211</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04805867498660468</v>
+        <v>0.04823642194708698</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03090588870394229</v>
+        <v>0.03093237709494018</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9205</v>
+        <v>8911</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36646</v>
+        <v>36358</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49244</v>
+        <v>48926</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25686</v>
+        <v>25517</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61809</v>
+        <v>63518</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79485</v>
+        <v>79142</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4693</v>
+        <v>4710</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34096</v>
+        <v>33609</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42117</v>
+        <v>42983</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16738</v>
+        <v>16719</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56091</v>
+        <v>55110</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>65898</v>
+        <v>67350</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2141</v>
+        <v>1821</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24068</v>
+        <v>24211</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29070</v>
+        <v>28556</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12623</v>
+        <v>12051</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>48038</v>
+        <v>46144</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53659</v>
+        <v>53412</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4441</v>
+        <v>4694</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20237</v>
+        <v>20796</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28873</v>
+        <v>28238</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17328</v>
+        <v>17692</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40533</v>
+        <v>41497</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>52445</v>
+        <v>51632</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28083</v>
+        <v>28624</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>132977</v>
+        <v>131340</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>169661</v>
+        <v>166855</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53736</v>
+        <v>52621</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>176836</v>
+        <v>177490</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>220984</v>
+        <v>221173</v>
       </c>
     </row>
     <row r="24">
